--- a/biology/Botanique/Triticum_timopheevii/Triticum_timopheevii.xlsx
+++ b/biology/Botanique/Triticum_timopheevii/Triticum_timopheevii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triticum timopheevii, le blé zanduri (terme provenant du géorgien ზანდური), est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire du Moyen-Orient.
-C'est une espèce domestiquée de blé tétraploïde autrefois cultivée, et qui existe à l'état sauvage. La forme cultivée se restreint à l'ouest de la Géorgie, tandis que la forme sauvage, formellement classée comme Triticum araticum Jakubz.) se rencontre dans une région comprenant le sud-est de la Turquie, le nord de l'Iraq, l'ouest de Iran et la Transcaucasie[2].
-Le blé zanduri a évolué isolément du plus commun  Triticum turgidum  (blé amidonnier), les hybrides entre Triticum timopheevii et Triticum turgidum  étant stériles du fait d'un « nombre considérable d'irrégularités chromosomiques pendant la méiose[2]. »
-Le blé zanduri cultivé est un blé « vêtu », à l'épi dense et pyramidal et dont les épillets ont une ou deux fleurs[3].
+C'est une espèce domestiquée de blé tétraploïde autrefois cultivée, et qui existe à l'état sauvage. La forme cultivée se restreint à l'ouest de la Géorgie, tandis que la forme sauvage, formellement classée comme Triticum araticum Jakubz.) se rencontre dans une région comprenant le sud-est de la Turquie, le nord de l'Iraq, l'ouest de Iran et la Transcaucasie.
+Le blé zanduri a évolué isolément du plus commun  Triticum turgidum  (blé amidonnier), les hybrides entre Triticum timopheevii et Triticum turgidum  étant stériles du fait d'un « nombre considérable d'irrégularités chromosomiques pendant la méiose. »
+Le blé zanduri cultivé est un blé « vêtu », à l'épi dense et pyramidal et dont les épillets ont une ou deux fleurs.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 septembre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 septembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Triticum timopheevii subsp. araraticum (Jakubz.) C. Yen
 sous-espèce Triticum timopheevii subsp. armeniacum (Jakubz.) van Slageren
 sous-espèce Triticum timopheevii subsp. militinae (Zhuk. &amp; Migush.) Valdés &amp; H. Scholz
